--- a/DataAnalysis_Ass3_RT2.xlsx
+++ b/DataAnalysis_Ass3_RT2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veronicagavagna/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veronicagavagna/Desktop/assignment3_RT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850464AC-CA44-194E-A7B6-B9989F91FE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE75147-B3A4-C041-8C9B-C43A9850557D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39020" yWindow="780" windowWidth="27640" windowHeight="16940" xr2:uid="{0CE1C52E-84C4-0647-9681-5ACC46268A0F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Num Box</t>
   </si>
@@ -56,13 +56,7 @@
     <t>0.001</t>
   </si>
   <si>
-    <t>p &gt;</t>
-  </si>
-  <si>
     <t>p &lt;</t>
-  </si>
-  <si>
-    <t>0.025</t>
   </si>
   <si>
     <t>Test1</t>
@@ -107,10 +101,13 @@
     <t>The probability of making mistakes by rejecting the null hypothesis is &lt; 0.001</t>
   </si>
   <si>
-    <t>The probability that the algorithms are equivalent is 0.025 &lt; p &lt; 0.05</t>
+    <t>0.05</t>
   </si>
   <si>
-    <t>The probability of making mistakes by rejecting the null hypothesis is &gt; 0.025 and &lt; 0.05</t>
+    <t>The probability that the algorithms are equivalent is p &lt; 0.05</t>
+  </si>
+  <si>
+    <t>The probability of making mistakes by rejecting the null hypothesis is 0.025 &lt; p &lt; 0.05</t>
   </si>
 </sst>
 </file>
@@ -698,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -712,7 +709,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -746,7 +743,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,7 +815,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -837,19 +834,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,9 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,15 +862,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,69 +897,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,16 +917,93 @@
     <xf numFmtId="10" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2077,16 +2069,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>18142</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>233066</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>18142</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>819219</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>150228</xdr:rowOff>
+      <xdr:rowOff>159997</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2108,8 +2100,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6150428" y="4290786"/>
-          <a:ext cx="6277428" cy="603799"/>
+          <a:off x="6543989" y="4552461"/>
+          <a:ext cx="6281615" cy="599613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2456,18 +2448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CDFBAA-879A-7E48-A052-AA385BEF0C07}">
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="68" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="60" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="6" customWidth="1"/>
     <col min="10" max="10" width="3.1640625" style="6" customWidth="1"/>
@@ -2492,24 +2484,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="119"/>
+        <v>8</v>
+      </c>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="76">
+      <c r="B2" s="95">
         <v>1.585712412500865</v>
       </c>
       <c r="C2" s="8">
@@ -2520,13 +2512,12 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="120"/>
     </row>
     <row r="3" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="77"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="13">
         <v>1</v>
       </c>
@@ -2535,7 +2526,6 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="120"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
@@ -2548,7 +2538,7 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="77"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="13">
         <v>1</v>
       </c>
@@ -2557,39 +2547,39 @@
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="121"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
       <c r="L4" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="P4" s="26"/>
-      <c r="Q4" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="110"/>
+      <c r="Q4" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="121"/>
     </row>
     <row r="5" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="77"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="13">
         <v>1</v>
       </c>
@@ -2598,8 +2588,8 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="112">
+      <c r="G5" s="91"/>
+      <c r="H5" s="84">
         <f>SUM(C2:C81)/A81</f>
         <v>0.98750000000000004</v>
       </c>
@@ -2624,18 +2614,18 @@
         <v>10.5</v>
       </c>
       <c r="P5" s="26"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="99"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="13">
         <v>1</v>
       </c>
@@ -2644,7 +2634,6 @@
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="120"/>
       <c r="J6" s="20"/>
       <c r="K6" s="32" t="s">
         <v>3</v>
@@ -2666,20 +2655,20 @@
         <v>10.5</v>
       </c>
       <c r="P6" s="26"/>
-      <c r="Q6" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="99"/>
+      <c r="Q6" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="109"/>
     </row>
     <row r="7" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="77"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="13">
         <v>1</v>
       </c>
@@ -2688,9 +2677,9 @@
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="121"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
@@ -2705,18 +2694,18 @@
       </c>
       <c r="O7" s="21"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="102"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="112"/>
     </row>
     <row r="8" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="77"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="13">
         <v>1</v>
       </c>
@@ -2725,8 +2714,8 @@
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="112">
+      <c r="G8" s="91"/>
+      <c r="H8" s="84">
         <f>SUM(D2:D81)/A81</f>
         <v>0.75</v>
       </c>
@@ -2742,7 +2731,7 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="77"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="13">
         <v>1</v>
       </c>
@@ -2751,11 +2740,10 @@
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="120"/>
       <c r="K9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="75">
+        <v>17</v>
+      </c>
+      <c r="L9" s="71">
         <f>(((L5-M5)^2)/M5)+(((L6-M6)^2)/M6)+(((N5-O5)^2)/O5)+(((N6-O6)^2)/O6)</f>
         <v>19.787598492634462</v>
       </c>
@@ -2770,7 +2758,7 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="77"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="13">
         <v>1</v>
       </c>
@@ -2779,16 +2767,16 @@
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="113" t="s">
-        <v>17</v>
+      <c r="G10" s="92"/>
+      <c r="H10" s="85" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="77"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="13">
         <v>1</v>
       </c>
@@ -2797,8 +2785,8 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="114">
+      <c r="G11" s="92"/>
+      <c r="H11" s="86">
         <f>1-H5</f>
         <v>1.2499999999999956E-2</v>
       </c>
@@ -2811,7 +2799,7 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="77"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="13">
         <v>1</v>
       </c>
@@ -2820,7 +2808,6 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="120"/>
       <c r="J12" s="46"/>
       <c r="K12" s="47"/>
       <c r="L12" s="47"/>
@@ -2833,7 +2820,7 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="77"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="13">
         <v>1</v>
       </c>
@@ -2842,39 +2829,39 @@
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="113" t="s">
-        <v>18</v>
+      <c r="G13" s="92"/>
+      <c r="H13" s="85" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="50"/>
       <c r="K13" s="51"/>
       <c r="L13" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="23" t="s">
         <v>4</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>4</v>
       </c>
       <c r="P13" s="52"/>
-      <c r="Q13" s="103" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="105"/>
+      <c r="Q13" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="115"/>
     </row>
     <row r="14" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="77"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="13">
         <v>1</v>
       </c>
@@ -2883,8 +2870,8 @@
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="114">
+      <c r="G14" s="92"/>
+      <c r="H14" s="86">
         <f>1-H8</f>
         <v>0.25</v>
       </c>
@@ -2908,18 +2895,18 @@
         <v>2</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="111"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="118"/>
     </row>
     <row r="15" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="13">
         <v>1</v>
       </c>
@@ -2928,7 +2915,6 @@
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="120"/>
       <c r="J15" s="50"/>
       <c r="K15" s="32" t="s">
         <v>3</v>
@@ -2948,20 +2934,20 @@
         <v>2</v>
       </c>
       <c r="P15" s="52"/>
-      <c r="Q15" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="93"/>
+      <c r="Q15" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="100"/>
     </row>
     <row r="16" spans="1:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="13">
         <v>1</v>
       </c>
@@ -2970,7 +2956,6 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="120"/>
       <c r="J16" s="50"/>
       <c r="K16" s="51"/>
       <c r="L16" s="37">
@@ -2984,18 +2969,18 @@
       </c>
       <c r="O16" s="51"/>
       <c r="P16" s="52"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="96"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="103"/>
     </row>
     <row r="17" spans="1:18" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
         <v>16</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="55">
         <v>1</v>
       </c>
@@ -3004,9 +2989,9 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="115" t="s">
-        <v>15</v>
+      <c r="G17" s="91"/>
+      <c r="H17" s="87" t="s">
+        <v>13</v>
       </c>
       <c r="J17" s="57"/>
       <c r="K17" s="58"/>
@@ -3022,7 +3007,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="95">
         <v>2.7437210348277512</v>
       </c>
       <c r="C18" s="8">
@@ -3033,31 +3018,30 @@
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="116">
+      <c r="G18" s="91"/>
+      <c r="H18" s="88">
         <f>SUM(C2:C65)/A65</f>
         <v>1</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="74">
+      <c r="K18" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="70">
         <f>(((L14-M14)^2)/M14+(((L15-M15)^2)/M15+((N14-O14)^2)/O14+((N15-O15)^2)/O15))</f>
         <v>4.129032258064516</v>
       </c>
-      <c r="M18" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="63" t="s">
-        <v>8</v>
+      <c r="M18" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="62" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="77"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="13">
         <v>1</v>
       </c>
@@ -3066,14 +3050,12 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="120"/>
-      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="77"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="13">
         <v>1</v>
       </c>
@@ -3082,17 +3064,16 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="115" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="60"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="87" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="77"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="13">
         <v>1</v>
       </c>
@@ -3101,8 +3082,8 @@
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="116">
+      <c r="G21" s="91"/>
+      <c r="H21" s="88">
         <f>SUM(D2:D65)/A65</f>
         <v>0.9375</v>
       </c>
@@ -3111,7 +3092,7 @@
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="77"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="13">
         <v>1</v>
       </c>
@@ -3120,13 +3101,12 @@
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="120"/>
     </row>
     <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="77"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="13">
         <v>1</v>
       </c>
@@ -3135,16 +3115,16 @@
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="117" t="s">
-        <v>17</v>
+      <c r="G23" s="92"/>
+      <c r="H23" s="89" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="77"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="13">
         <v>1</v>
       </c>
@@ -3153,8 +3133,8 @@
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="118">
+      <c r="G24" s="92"/>
+      <c r="H24" s="90">
         <f>1-H18</f>
         <v>0</v>
       </c>
@@ -3163,7 +3143,7 @@
       <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="77"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="13">
         <v>1</v>
       </c>
@@ -3172,13 +3152,12 @@
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="120"/>
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="77"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="13">
         <v>1</v>
       </c>
@@ -3187,25 +3166,25 @@
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="117" t="s">
+      <c r="G26" s="92"/>
+      <c r="H26" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="N26" s="90" t="s">
-        <v>12</v>
+      <c r="M26" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="83" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="77"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="13">
         <v>1</v>
       </c>
@@ -3214,19 +3193,19 @@
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="118">
+      <c r="G27" s="92"/>
+      <c r="H27" s="90">
         <f>1-H21</f>
         <v>6.25E-2</v>
       </c>
-      <c r="L27" s="79">
+      <c r="L27" s="72">
         <v>2</v>
       </c>
-      <c r="M27" s="85">
+      <c r="M27" s="78">
         <f>SUM(C2:C17)</f>
         <v>16</v>
       </c>
-      <c r="N27" s="82">
+      <c r="N27" s="75">
         <f>SUM(D2:D17)</f>
         <v>16</v>
       </c>
@@ -3235,7 +3214,7 @@
       <c r="A28" s="54">
         <v>27</v>
       </c>
-      <c r="B28" s="78"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="55">
         <v>1</v>
       </c>
@@ -3244,15 +3223,14 @@
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="120"/>
-      <c r="L28" s="80">
+      <c r="L28" s="73">
         <v>3</v>
       </c>
-      <c r="M28" s="86">
+      <c r="M28" s="79">
         <f>SUM(C18:C28)</f>
         <v>11</v>
       </c>
-      <c r="N28" s="83">
+      <c r="N28" s="76">
         <f>SUM(D18:D28)</f>
         <v>11</v>
       </c>
@@ -3261,7 +3239,7 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="95">
         <v>3.7240110174631118</v>
       </c>
       <c r="C29" s="8">
@@ -3272,15 +3250,14 @@
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
-      <c r="G29" s="120"/>
-      <c r="L29" s="80">
+      <c r="L29" s="73">
         <v>4</v>
       </c>
-      <c r="M29" s="86">
+      <c r="M29" s="79">
         <f>SUM(C29:C37)</f>
         <v>9</v>
       </c>
-      <c r="N29" s="83">
+      <c r="N29" s="76">
         <f>SUM(D29:D37)</f>
         <v>9</v>
       </c>
@@ -3289,7 +3266,7 @@
       <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="77"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="13">
         <v>1</v>
       </c>
@@ -3298,15 +3275,14 @@
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="120"/>
-      <c r="L30" s="80">
+      <c r="L30" s="73">
         <v>5</v>
       </c>
-      <c r="M30" s="86">
+      <c r="M30" s="79">
         <f>SUM(C38:C52)</f>
         <v>15</v>
       </c>
-      <c r="N30" s="83">
+      <c r="N30" s="76">
         <f>SUM(D38:D52)</f>
         <v>14</v>
       </c>
@@ -3315,7 +3291,7 @@
       <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="77"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="13">
         <v>1</v>
       </c>
@@ -3324,15 +3300,14 @@
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="120"/>
-      <c r="L31" s="80">
+      <c r="L31" s="73">
         <v>6</v>
       </c>
-      <c r="M31" s="86">
+      <c r="M31" s="79">
         <f>SUM(C53:C65)</f>
         <v>13</v>
       </c>
-      <c r="N31" s="83">
+      <c r="N31" s="76">
         <f>SUM(D53:D65)</f>
         <v>10</v>
       </c>
@@ -3341,7 +3316,7 @@
       <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="77"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="13">
         <v>1</v>
       </c>
@@ -3350,15 +3325,14 @@
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="120"/>
-      <c r="L32" s="80">
+      <c r="L32" s="73">
         <v>7</v>
       </c>
-      <c r="M32" s="86">
+      <c r="M32" s="79">
         <f>SUM(C66:C69)</f>
         <v>4</v>
       </c>
-      <c r="N32" s="83">
+      <c r="N32" s="76">
         <f>SUM(D66:D69)</f>
         <v>0</v>
       </c>
@@ -3367,7 +3341,7 @@
       <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="77"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="13">
         <v>1</v>
       </c>
@@ -3376,15 +3350,14 @@
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="16"/>
-      <c r="G33" s="120"/>
-      <c r="L33" s="80">
+      <c r="L33" s="73">
         <v>8</v>
       </c>
-      <c r="M33" s="86">
+      <c r="M33" s="79">
         <f>SUM(C70:C71)</f>
         <v>1</v>
       </c>
-      <c r="N33" s="83">
+      <c r="N33" s="76">
         <f>SUM(D70:D71)</f>
         <v>0</v>
       </c>
@@ -3393,7 +3366,7 @@
       <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="77"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="13">
         <v>1</v>
       </c>
@@ -3402,15 +3375,14 @@
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="120"/>
-      <c r="L34" s="80">
+      <c r="L34" s="73">
         <v>9</v>
       </c>
-      <c r="M34" s="86">
+      <c r="M34" s="79">
         <f>SUM(C72:C76)</f>
         <v>5</v>
       </c>
-      <c r="N34" s="83">
+      <c r="N34" s="76">
         <f>SUM(D72:D76)</f>
         <v>0</v>
       </c>
@@ -3419,7 +3391,7 @@
       <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="77"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="13">
         <v>1</v>
       </c>
@@ -3428,15 +3400,14 @@
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="120"/>
-      <c r="L35" s="81">
+      <c r="L35" s="74">
         <v>10</v>
       </c>
-      <c r="M35" s="87">
+      <c r="M35" s="80">
         <f>SUM(C77:C81)</f>
         <v>5</v>
       </c>
-      <c r="N35" s="84">
+      <c r="N35" s="77">
         <f>SUM(D77:D81)</f>
         <v>0</v>
       </c>
@@ -3445,7 +3416,7 @@
       <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="77"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="13">
         <v>1</v>
       </c>
@@ -3454,13 +3425,12 @@
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="120"/>
     </row>
     <row r="37" spans="1:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="54">
         <v>36</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="55">
         <v>1</v>
       </c>
@@ -3469,13 +3439,12 @@
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="120"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="76">
+      <c r="B38" s="95">
         <v>4.8728604950436161</v>
       </c>
       <c r="C38" s="8">
@@ -3486,13 +3455,12 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="120"/>
     </row>
     <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="77"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="13">
         <v>1</v>
       </c>
@@ -3501,13 +3469,12 @@
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="120"/>
     </row>
     <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="77"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="13">
         <v>1</v>
       </c>
@@ -3516,13 +3483,12 @@
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="120"/>
     </row>
     <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="77"/>
+      <c r="B41" s="96"/>
       <c r="C41" s="13">
         <v>1</v>
       </c>
@@ -3531,13 +3497,12 @@
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="120"/>
     </row>
     <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="77"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="13">
         <v>1</v>
       </c>
@@ -3546,13 +3511,12 @@
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="120"/>
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="77"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="13">
         <v>1</v>
       </c>
@@ -3561,13 +3525,12 @@
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="120"/>
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="77"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="13">
         <v>1</v>
       </c>
@@ -3576,13 +3539,12 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="120"/>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="77"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="13">
         <v>1</v>
       </c>
@@ -3591,13 +3553,12 @@
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="120"/>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="77"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="13">
         <v>1</v>
       </c>
@@ -3606,13 +3567,12 @@
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="120"/>
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="77"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="13">
         <v>1</v>
       </c>
@@ -3621,13 +3581,12 @@
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="120"/>
     </row>
     <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="77"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="13">
         <v>1</v>
       </c>
@@ -3636,13 +3595,12 @@
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="120"/>
-    </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="77"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="13">
         <v>1</v>
       </c>
@@ -3651,13 +3609,12 @@
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="120"/>
-    </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="77"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="13">
         <v>1</v>
       </c>
@@ -3666,13 +3623,12 @@
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="120"/>
-    </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="77"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="13">
         <v>1</v>
       </c>
@@ -3681,13 +3637,12 @@
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="120"/>
-    </row>
-    <row r="52" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:6" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="54">
         <v>51</v>
       </c>
-      <c r="B52" s="78"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="55">
         <v>1</v>
       </c>
@@ -3696,13 +3651,12 @@
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="120"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B53" s="95">
         <v>5.7524038082609907</v>
       </c>
       <c r="C53" s="8">
@@ -3713,13 +3667,12 @@
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="120"/>
-    </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="77"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="13">
         <v>1</v>
       </c>
@@ -3728,13 +3681,12 @@
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="120"/>
-    </row>
-    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="77"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="13">
         <v>1</v>
       </c>
@@ -3743,13 +3695,12 @@
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="120"/>
-    </row>
-    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="77"/>
+      <c r="B56" s="96"/>
       <c r="C56" s="13">
         <v>1</v>
       </c>
@@ -3758,13 +3709,12 @@
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="120"/>
-    </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="77"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="13">
         <v>1</v>
       </c>
@@ -3773,13 +3723,12 @@
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="120"/>
-    </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="77"/>
+      <c r="B58" s="96"/>
       <c r="C58" s="13">
         <v>1</v>
       </c>
@@ -3788,13 +3737,12 @@
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="120"/>
-    </row>
-    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="77"/>
+      <c r="B59" s="96"/>
       <c r="C59" s="13">
         <v>1</v>
       </c>
@@ -3803,13 +3751,12 @@
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="120"/>
-    </row>
-    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="77"/>
+      <c r="B60" s="96"/>
       <c r="C60" s="13">
         <v>1</v>
       </c>
@@ -3818,13 +3765,12 @@
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="120"/>
-    </row>
-    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="77"/>
+      <c r="B61" s="96"/>
       <c r="C61" s="13">
         <v>1</v>
       </c>
@@ -3833,13 +3779,12 @@
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="120"/>
-    </row>
-    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="77"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="13">
         <v>1</v>
       </c>
@@ -3848,13 +3793,12 @@
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="120"/>
-    </row>
-    <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="77"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="13">
         <v>1</v>
       </c>
@@ -3863,13 +3807,12 @@
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="120"/>
-    </row>
-    <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="77"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="13">
         <v>1</v>
       </c>
@@ -3878,13 +3821,12 @@
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="120"/>
     </row>
     <row r="65" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="54">
         <v>64</v>
       </c>
-      <c r="B65" s="78"/>
+      <c r="B65" s="97"/>
       <c r="C65" s="55">
         <v>1</v>
       </c>
@@ -3892,14 +3834,13 @@
         <v>0</v>
       </c>
       <c r="E65" s="15"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="120"/>
+      <c r="F65" s="63"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="76">
+      <c r="B66" s="95">
         <v>7</v>
       </c>
       <c r="C66" s="8">
@@ -3909,14 +3850,14 @@
         <v>0</v>
       </c>
       <c r="E66" s="15"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="123"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="93"/>
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="77"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="13">
         <v>1</v>
       </c>
@@ -3924,14 +3865,14 @@
         <v>0</v>
       </c>
       <c r="E67" s="15"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="123"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="93"/>
     </row>
     <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>67</v>
       </c>
-      <c r="B68" s="77"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="13">
         <v>1</v>
       </c>
@@ -3939,14 +3880,14 @@
         <v>0</v>
       </c>
       <c r="E68" s="15"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="123"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="93"/>
     </row>
     <row r="69" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="54">
         <v>68</v>
       </c>
-      <c r="B69" s="78"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="55">
         <v>1</v>
       </c>
@@ -3954,14 +3895,14 @@
         <v>0</v>
       </c>
       <c r="E69" s="15"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="123"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="93"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="76">
+      <c r="B70" s="95">
         <v>8</v>
       </c>
       <c r="C70" s="8">
@@ -3971,14 +3912,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="15"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="123"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="93"/>
     </row>
     <row r="71" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="54">
         <v>70</v>
       </c>
-      <c r="B71" s="78"/>
+      <c r="B71" s="97"/>
       <c r="C71" s="55">
         <v>1</v>
       </c>
@@ -3986,14 +3927,14 @@
         <v>0</v>
       </c>
       <c r="E71" s="15"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="123"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="93"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="76">
+      <c r="B72" s="95">
         <v>8.5181792676857793</v>
       </c>
       <c r="C72" s="8">
@@ -4003,14 +3944,14 @@
         <v>0</v>
       </c>
       <c r="E72" s="15"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="123"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="93"/>
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="77"/>
+      <c r="B73" s="96"/>
       <c r="C73" s="13">
         <v>1</v>
       </c>
@@ -4018,14 +3959,14 @@
         <v>0</v>
       </c>
       <c r="E73" s="15"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="123"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="93"/>
     </row>
     <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="77"/>
+      <c r="B74" s="96"/>
       <c r="C74" s="13">
         <v>1</v>
       </c>
@@ -4033,14 +3974,14 @@
         <v>0</v>
       </c>
       <c r="E74" s="15"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="123"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="93"/>
     </row>
     <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="77"/>
+      <c r="B75" s="96"/>
       <c r="C75" s="13">
         <v>1</v>
       </c>
@@ -4048,14 +3989,14 @@
         <v>0</v>
       </c>
       <c r="E75" s="15"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="123"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="93"/>
     </row>
     <row r="76" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="54">
         <v>75</v>
       </c>
-      <c r="B76" s="78"/>
+      <c r="B76" s="97"/>
       <c r="C76" s="55">
         <v>1</v>
       </c>
@@ -4063,31 +4004,31 @@
         <v>0</v>
       </c>
       <c r="E76" s="15"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="123"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="93"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="67">
+      <c r="A77" s="64">
         <v>76</v>
       </c>
-      <c r="B77" s="76">
+      <c r="B77" s="95">
         <v>10</v>
       </c>
-      <c r="C77" s="68">
-        <v>1</v>
-      </c>
-      <c r="D77" s="69">
+      <c r="C77" s="65">
+        <v>1</v>
+      </c>
+      <c r="D77" s="66">
         <v>0</v>
       </c>
       <c r="E77" s="15"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="123"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="93"/>
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>77</v>
       </c>
-      <c r="B78" s="77"/>
+      <c r="B78" s="96"/>
       <c r="C78" s="13">
         <v>1</v>
       </c>
@@ -4095,14 +4036,14 @@
         <v>0</v>
       </c>
       <c r="E78" s="15"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="123"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="93"/>
     </row>
     <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>78</v>
       </c>
-      <c r="B79" s="77"/>
+      <c r="B79" s="96"/>
       <c r="C79" s="13">
         <v>1</v>
       </c>
@@ -4110,14 +4051,14 @@
         <v>0</v>
       </c>
       <c r="E79" s="15"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="123"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="93"/>
     </row>
     <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>79</v>
       </c>
-      <c r="B80" s="77"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="13">
         <v>1</v>
       </c>
@@ -4125,35 +4066,30 @@
         <v>0</v>
       </c>
       <c r="E80" s="15"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="123"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="93"/>
     </row>
     <row r="81" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="54">
         <v>80</v>
       </c>
-      <c r="B81" s="78"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="55">
         <v>1</v>
       </c>
       <c r="D81" s="56">
         <v>0</v>
       </c>
-      <c r="E81" s="70"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="123"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="106"/>
+      <c r="G81" s="93"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F82" s="73"/>
-      <c r="G82" s="124"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="Q6:V7"/>
-    <mergeCell ref="Q13:V14"/>
-    <mergeCell ref="Q4:V5"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B71"/>
     <mergeCell ref="B72:B76"/>
     <mergeCell ref="B77:B81"/>
     <mergeCell ref="Q15:V16"/>
@@ -4163,6 +4099,11 @@
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B38:B52"/>
     <mergeCell ref="B53:B65"/>
+    <mergeCell ref="Q6:V7"/>
+    <mergeCell ref="Q13:V14"/>
+    <mergeCell ref="Q4:V5"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
